--- a/data/processed/train/tasks.xlsx
+++ b/data/processed/train/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hack\HSE AI Assistant hack\pocket-tutor-py\data\processed\train\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C84C10-9275-4CCE-A036-4960E269E3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9799F71B-DE3B-4961-9B13-296CFF1C10B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,9 +631,6 @@
 print(designer (designers, sizes, towns))</t>
   </si>
   <si>
-    <t>data = eval(open('input.txt'.read()))</t>
-  </si>
-  <si>
     <t>import os
 #data = eval(open(os.path.join(os.path.dirname(__file__), 'input.txt')).read())
 data = eval(input())
@@ -648,6 +645,9 @@
         return ([True, summa])
     return False
 print(text_check(data))</t>
+  </si>
+  <si>
+    <t>data = eval(input())</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,10 +1423,10 @@
         <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
         <v>67</v>
-      </c>
-      <c r="E23" t="s">
-        <v>66</v>
       </c>
       <c r="F23" t="s">
         <v>56</v>

--- a/data/processed/train/tasks.xlsx
+++ b/data/processed/train/tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hack\HSE AI Assistant hack\pocket-tutor-py\data\processed\train\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9799F71B-DE3B-4961-9B13-296CFF1C10B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67B9494-D3B9-43E2-98E9-38A35F3441D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -120,21 +120,6 @@
 В переменную language считывается язык (строка). Этот код уже написан.
 Определите, какие переводчики не знают введенный язык и напечатайте их фамилии в верхнем регистре через точку с запятой и пробел. Фамилии должны идти в том же порядке, что и в словаре.
 Если язык никто не знает, то программа ничего не печатает.</t>
-  </si>
-  <si>
-    <t>interpreter = {
-    'Профперевод': {'Петров Александр': ["английский", "немецкий", "китайский"], 'Иванов Кирилл': ["китайский", "шведский"]},
-    'Экспресс_перевод': {'Раскин Николай': ["иврит", "казахский", "португальский" ], 'Мартынов Аркадий': ["шведский", "испанский", "английский"], 'Правдин Петр': ["английский"]},
-    'Альфапер': {'Игнатов Максим': ["немецкий", "английский", "хинди"], 'Родионов Олег': ["шведский", "испанский"]},
-    'Переводы24': {'Громов Игорь': ["немецкий", "португальский"]}
-}
-language = input() 
-count_list = []
-for key, value in interpreter.items():
-    for k, v in value.items():
-        if language not in v:
-            count_list.append(k.split()[0].upper())
-print(*count_list, sep='; ')</t>
   </si>
   <si>
     <t>Реализуйте следующую программу:
@@ -210,12 +195,6 @@
 Программа выводит через точку с запятой и пробел языки, которые изучаются в рамках программы, нравятся студенту и их можно изучать в университете бесплатно.
 Языки должны быть отсортированы в обратном алфавиту порядке.
 Если таких языков нет, программа ничего не выводит. </t>
-  </si>
-  <si>
-    <t>course = set(input().split(', '))
-favorite = set(input().split(', '))
-free = set(input().split(', '))
-print(*sorted(free&amp;course&amp;favorite, reverse = True), sep = '; ')</t>
   </si>
   <si>
     <t>Ксения анализирует реализованные дизайн-проекты, которые собраны в файле формата csv. Напишите программу, которая выводит все строки, соответствующие реализованным в определенный период проектам, стоимость которых была не более 500 тыс. руб..
@@ -280,28 +259,12 @@
 Если таких агенств нет, программа ничего не выводит. </t>
   </si>
   <si>
-    <t>anna_choice = input().split()
-galina_choice = input().split()
-top10 = input().split()
-print(', '.join(sorted((set(anna_choice) &amp; set(galina_choice)).intersection(set(top10)))))</t>
-  </si>
-  <si>
     <t>Реализуйте программу, которая напечатает количество тюркизмов, встречающихся в тексте: 
 В переменную sentence считывается текст. Этот код уже написан.
 Программа проверяет, есть ли в этом тексте тюркизмы. Гарантируется, что тюркизмы — это всегда слова, которые отделены от другого текста пробелом, состоящие только из букв, в которых встречается буквосочетание "аз" или которые заканчиваются на буквосочетание "ук". 
 Гарантируется, что тюркизмы не повторяются.
 В конце программа печатает количество всех тюркизмов, встречающихся в тексте. 
 Если названий тюркизмов в тексте нет, программа печатает строку "Тюркизмов в тексте нет".</t>
-  </si>
-  <si>
-    <t>sentence = input()
-res = 0
-for info in sentence.split():
-    if info.isalpha() and (info.endswith('ук') or 'аз' in info):      
-        res += 1
-if res == 0:
-    res = "Тюркизмов в тексте нет"
-print(res)</t>
   </si>
   <si>
     <t>Напишите функцию, определяющую дизайнера, который работает над самым легким проектом.
@@ -536,34 +499,13 @@
 Проверьте, что первая переменная-счетчик не равна нулю, и если да, то пусть функция вернет список из двух значений: логической константы True и значения второй-переменной счетчика; иначе пусть функция вернет логическую константу False.</t>
   </si>
   <si>
-    <t>winners = []</t>
-  </si>
-  <si>
-    <t>logo = input()</t>
-  </si>
-  <si>
-    <t>agencies = input().split()</t>
-  </si>
-  <si>
     <t>print(count_letters(langs, letters))</t>
   </si>
   <si>
-    <t>course = set(input().split(', '))
-favorite = set(input().split(', '))
-free = set(input().split(', '))</t>
-  </si>
-  <si>
     <t>add csv</t>
   </si>
   <si>
     <t>print(designer (designers, sizes, towns))</t>
-  </si>
-  <si>
-    <t>anna_choice = input().split()
-galina_choice = input().split()</t>
-  </si>
-  <si>
-    <t>sentence = input()</t>
   </si>
   <si>
     <t>add txt</t>
@@ -591,50 +533,13 @@
     <t>langs, letters = eval(input())</t>
   </si>
   <si>
-    <t>langs, letters = eval(input())
-def count_letters(langs, letters):
-    sp = []
-    langs = langs.split(', ')
-    letters = list(map(int, letters.split(', ')))
-    mn = min(letters)
-    ind = letters.index(mn)
-    return langs[ind]
-print(count_letters(langs, letters))</t>
-  </si>
-  <si>
     <t>designers, sizes, towns = eval(input())</t>
   </si>
   <si>
-    <t>designers, sizes, towns = eval(input())
-def designer (designers, sizes, towns):
-    sizes = list(map(int, sizes))
-    lst_of_des = []
-    lst_of_siz = []
-    for i in range(len(towns)):
-        if towns[i] == "Москва":
-            lst_of_des.append(designers[i])
-            lst_of_siz.append(sizes[i])
-    return lst_of_des[lst_of_siz.index(min(lst_of_siz))]
-print(designer (designers, sizes, towns))</t>
-  </si>
-  <si>
-    <t>designers, sizes, towns = eval(input())
-def designer (designers, sizes, towns):
-    sizes = list(map(int, sizes))
-    lst_of_des = []
-    lst_of_siz = []
-    for i in range(len(towns)):
-        if towns[i] != "Москва" and towns[i] != "Санкт-Петербург":
-            lst_of_des.append(designers[i])
-            lst_of_siz.append(sizes[i])
-    return lst_of_des[lst_of_siz.index(min(lst_of_siz))]
-print(designer (designers, sizes, towns))</t>
-  </si>
-  <si>
-    <t>import os
-#data = eval(open(os.path.join(os.path.dirname(__file__), 'input.txt')).read())
-data = eval(input())
-def text_check(data):
+    <t>data = eval(input())</t>
+  </si>
+  <si>
+    <t>def text_check(data):
     counter = 0
     summa = 0
     for k, v in data.items():
@@ -643,11 +548,70 @@
             summa += v[0]
     if counter != 0:
         return ([True, summa])
-    return False
-print(text_check(data))</t>
-  </si>
-  <si>
-    <t>data = eval(input())</t>
+    return False</t>
+  </si>
+  <si>
+    <t>def designer (designers, sizes, towns):
+    sizes = list(map(int, sizes))
+    lst_of_des = []
+    lst_of_siz = []
+    for i in range(len(towns)):
+        if towns[i] != "Москва" and towns[i] != "Санкт-Петербург":
+            lst_of_des.append(designers[i])
+            lst_of_siz.append(sizes[i])
+    return lst_of_des[lst_of_siz.index(min(lst_of_siz))]</t>
+  </si>
+  <si>
+    <t>def designer (designers, sizes, towns):
+    sizes = list(map(int, sizes))
+    lst_of_des = []
+    lst_of_siz = []
+    for i in range(len(towns)):
+        if towns[i] == "Москва":
+            lst_of_des.append(designers[i])
+            lst_of_siz.append(sizes[i])
+    return lst_of_des[lst_of_siz.index(min(lst_of_siz))]</t>
+  </si>
+  <si>
+    <t>def count_letters(langs, letters):
+    sp = []
+    langs = langs.split(', ')
+    letters = list(map(int, letters.split(', ')))
+    mn = min(letters)
+    ind = letters.index(mn)
+    return langs[ind]</t>
+  </si>
+  <si>
+    <t>sentence = input()
+res = 0
+for info in sentence.split():
+    if info.isalpha() and (info.endswith('ук') or 'аз' in info):      
+        res += 1
+if res == 0:
+    res = "Тюркизмов в тексте нет"
+print(res)</t>
+  </si>
+  <si>
+    <t>course = set(input().split(', '))
+favorite = set(input().split(', '))
+free = set(input().split(', '))
+print(*sorted(free&amp;course&amp;favorite, reverse = True), sep = '; ')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+language = input()
+count_list = []
+for key, value in interpreter.items():
+    for k, v in value.items():
+        if language not in v:
+            count_list.append(k.split()[0].upper())
+print(*count_list, sep='; ')</t>
+  </si>
+  <si>
+    <t>anna_choice = input().split()
+galina_choice = input().split()
+top10 = input().split()
+print(', '.join(sorted((set(anna_choice) &amp; set(galina_choice)).intersection(set(top10)))))</t>
   </si>
 </sst>
 </file>
@@ -714,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -724,6 +688,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,18 +996,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="54.109375" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="4" max="4" width="112.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,20 +1015,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1078,7 +1043,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1088,351 +1053,338 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" t="s">
-        <v>56</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
+    <sortCondition ref="A2:A23"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>